--- a/medicine/Psychotrope/Partagas/Partagas.xlsx
+++ b/medicine/Psychotrope/Partagas/Partagas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Partagás  est une marque de cigares cubains classée dans le milieu supérieur (medio alto) de la pyramide des marques selon la société Habanos S.A. qui la commercialise.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire de la Marque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Partagas est une des plus anciennes fabriques de cigares de Cuba encore en activité. Elle a été fondée en 1845 par un espagnol immigré à La Havane, Jaime Partagas Ravelo. Il installe sa manufacture, la plus grande de Cuba, en plein cœur de la ville, rue Industria, où elle se dresse toujours de nos jours, sous le fronton indiquant "Partagas real fabrica de tabacos" (manufacture royale de tabacs Partagas).
 Jaime Partagas veillait personnellement au respect de critères de qualité dans la production de ses cigares. Il fut un des premiers propriétaire de manufacture à acquérir des plantations de tabac dans la Vuelta Abajo pour pouvoir ne sélectionner que les meilleurs. Il est aussi connu pour avoir, en 1860, initié la pratique de la lecture à voix haute d'œuvres littéraires pendant les longues heures de roulage au sein des ateliers.
@@ -546,7 +560,9 @@
           <t>Gamme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La gamme Partagas est extrêmement large, proposant pas moins de 23 modules "classiques" (c'est-à-dire produits en permanence) et de nombreux autres éditions limités ou modules exceptionnels.
 La liste donnée ici est donc une sélection purement indicative :
@@ -582,7 +598,9 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le révolutionnaire cubain d'origine argentine Ernesto "Che" Guevara ayant été contraint par ses médecins à ne fumer qu'un cigare par jour, la fabrique Partagas créa, dit-on, spécialement pour lui un module exceptionnel, l'Inmenso Visibles, cigare totalement hors-normes long de 75 cm. Commercialisé un temps, ce module ne se trouve plus de nos jours que chez des collectionneurs.
 </t>
